--- a/assets/form/IP/APUZT.xlsx
+++ b/assets/form/IP/APUZT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C243FD18-AA00-4C1E-9FE4-9AD7A46E3B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633EC5B3-E7AF-4299-953D-3ABFCF8869B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24735" yWindow="2820" windowWidth="15375" windowHeight="7875" xr2:uid="{0887C9B9-28B1-4BFF-AF79-CD038AC41F19}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0887C9B9-28B1-4BFF-AF79-CD038AC41F19}"/>
   </bookViews>
   <sheets>
     <sheet name="APUZT" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>(дата)</t>
   </si>
@@ -254,9 +254,6 @@
     <t>на приемку уложенного и забалластированного трубопровода</t>
   </si>
   <si>
-    <t>АКТ №</t>
-  </si>
-  <si>
     <t>ООО «Газпром трансгаз Нижний Новгород»</t>
   </si>
   <si>
@@ -270,6 +267,27 @@
   </si>
   <si>
     <t>Приложение 7</t>
+  </si>
+  <si>
+    <t>Филиал</t>
+  </si>
+  <si>
+    <t>____________________________</t>
+  </si>
+  <si>
+    <t>АКТ №_____</t>
+  </si>
+  <si>
+    <t>изоляционного покрытия</t>
+  </si>
+  <si>
+    <t>визуально</t>
+  </si>
+  <si>
+    <t>Соответствует</t>
+  </si>
+  <si>
+    <t>Инженер-диагност</t>
   </si>
 </sst>
 </file>
@@ -280,7 +298,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-FC19]dd\ mmmm\ yyyy&quot; г.&quot;;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +363,47 @@
       <sz val="9"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +413,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -408,11 +467,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,21 +519,20 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,7 +540,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +589,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -549,6 +642,7 @@
       <sheetName val="Справочник дефектов ИП"/>
       <sheetName val="Свод"/>
       <sheetName val="ЗП ГОСТ Р 51164-98"/>
+      <sheetName val="Акт на приемку уложенного тр."/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -763,6 +857,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1070,8 +1165,8 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,120 +1185,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K2" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K3" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E4" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="21"/>
+      <c r="E8" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="G9" s="18"/>
+      <c r="I9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1213,11 +1300,11 @@
       <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="F13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1250,95 +1337,89 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -1364,41 +1445,39 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="I23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
@@ -1459,10 +1538,10 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="D29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1473,68 +1552,68 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="A30" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="B32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
@@ -1574,11 +1653,11 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="H36" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
       <c r="K36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1597,19 +1676,19 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1664,61 +1743,61 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="D42" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="A43" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="A44" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -1732,38 +1811,38 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
+      <c r="A47" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -1801,42 +1880,39 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="H51" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="C52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
@@ -1861,42 +1937,39 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
+      <c r="H55" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
+      <c r="C56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
@@ -1921,12 +1994,12 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
+      <c r="H59" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
@@ -1936,12 +2009,12 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="28" t="s">
+      <c r="H60" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
@@ -1976,88 +2049,88 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="34" t="s">
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="33" t="s">
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="33"/>
+      <c r="K63" s="32"/>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K64" s="37"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="36"/>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65" s="37"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="36"/>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="37"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
@@ -2088,34 +2161,34 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="A69" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
@@ -2178,19 +2251,19 @@
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
@@ -2335,165 +2408,164 @@
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="39" t="s">
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I86" s="39"/>
-      <c r="J86" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K86" s="40"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41" t="s">
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41" t="s">
+      <c r="I87" s="40"/>
+      <c r="J87" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K87" s="41"/>
+      <c r="K87" s="40"/>
     </row>
     <row r="88" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="39" t="s">
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I88" s="39"/>
-      <c r="J88" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K88" s="40"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K88" s="39"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="41" t="s">
+      <c r="E89" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41" t="s">
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41" t="s">
+      <c r="I89" s="40"/>
+      <c r="J89" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K89" s="41"/>
+      <c r="K89" s="40"/>
     </row>
     <row r="90" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="39" t="s">
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I90" s="39"/>
-      <c r="J90" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K90" s="40"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K90" s="39"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="41" t="s">
+      <c r="E91" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41" t="s">
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41" t="s">
+      <c r="I91" s="40"/>
+      <c r="J91" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K91" s="41"/>
+      <c r="K91" s="40"/>
     </row>
     <row r="92" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="39" t="s">
+      <c r="A92" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="39"/>
-      <c r="J92" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K92" s="40"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41" t="s">
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41" t="s">
+      <c r="I93" s="40"/>
+      <c r="J93" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K93" s="41"/>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
@@ -2691,7 +2763,7 @@
       <c r="K108" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="81">
     <mergeCell ref="E93:G93"/>
     <mergeCell ref="H93:I93"/>
     <mergeCell ref="J93:K93"/>
@@ -2742,10 +2814,8 @@
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A48:K48"/>
     <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A52:K52"/>
     <mergeCell ref="A53:K53"/>
     <mergeCell ref="H55:K55"/>
-    <mergeCell ref="A56:K56"/>
     <mergeCell ref="A57:K57"/>
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="H60:K60"/>
@@ -2760,29 +2830,24 @@
     <mergeCell ref="A45:K45"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A24:K24"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A16:K16"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="E7:K7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>